--- a/medicine/Enfance/Betty_Abah/Betty_Abah.xlsx
+++ b/medicine/Enfance/Betty_Abah/Betty_Abah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betty Abah est une journaliste de presse écrite et une écrivaine[1]. Par ailleurs, elle milite pour les droits des femmes et ceux des enfants. Elle est la fondatrice de CEE HOPE (en), Centre for Children’s Health Education, Orientation and Protection, une association qui protège les enfants, dans son pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betty Abah est une journaliste de presse écrite et une écrivaine. Par ailleurs, elle milite pour les droits des femmes et ceux des enfants. Elle est la fondatrice de CEE HOPE (en), Centre for Children’s Health Education, Orientation and Protection, une association qui protège les enfants, dans son pays.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Betty Abah est née le 6 mars 1974 à Oturkpo, au Nigeria.  Journaliste de presse écrite, elle est titulaire d'un master en littérature anglaise, des universités de Calabar et de Lagos[2].
-Betty Abah défend plusieurs cas de violations des droits de l'homme, notamment dans la libération des lycéennes de Chibok, enlevées par les terroristes de Boko Haram, dans le nord-est du Nigeria, des campagnes pour les droits environnementaux des femmes du delta du Niger, le cas de tortures sur trois femmes d'Ejigbo, mais aussi l'enlèvement d'Ese Oruru (en)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Betty Abah est née le 6 mars 1974 à Oturkpo, au Nigeria.  Journaliste de presse écrite, elle est titulaire d'un master en littérature anglaise, des universités de Calabar et de Lagos.
+Betty Abah défend plusieurs cas de violations des droits de l'homme, notamment dans la libération des lycéennes de Chibok, enlevées par les terroristes de Boko Haram, dans le nord-est du Nigeria, des campagnes pour les droits environnementaux des femmes du delta du Niger, le cas de tortures sur trois femmes d'Ejigbo, mais aussi l'enlèvement d'Ese Oruru (en).
 </t>
         </is>
       </c>
